--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Mag</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H2">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I2">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J2">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.247810795414966</v>
+        <v>0.061306</v>
       </c>
       <c r="N2">
-        <v>0.247810795414966</v>
+        <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="Q2">
-        <v>0.01094907526889297</v>
+        <v>0.003277643548666667</v>
       </c>
       <c r="R2">
-        <v>0.01094907526889297</v>
+        <v>0.029498791938</v>
       </c>
       <c r="S2">
-        <v>0.06596078662728613</v>
+        <v>0.009366847687798333</v>
       </c>
       <c r="T2">
-        <v>0.06596078662728613</v>
+        <v>0.009366847687798335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.578742533217937</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H3">
-        <v>0.578742533217937</v>
+        <v>0.160391</v>
       </c>
       <c r="I3">
-        <v>0.8640005273152044</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J3">
-        <v>0.8640005273152044</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.247810795414966</v>
+        <v>0.2837853333333334</v>
       </c>
       <c r="N3">
-        <v>0.247810795414966</v>
+        <v>0.8513560000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="Q3">
-        <v>0.1434186474972094</v>
+        <v>0.01517220446622223</v>
       </c>
       <c r="R3">
-        <v>0.1434186474972094</v>
+        <v>0.136549840196</v>
       </c>
       <c r="S3">
-        <v>0.8640005273152044</v>
+        <v>0.04335911645457888</v>
       </c>
       <c r="T3">
-        <v>0.8640005273152044</v>
+        <v>0.04335911645457889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.05346366666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.160391</v>
+      </c>
+      <c r="I4">
+        <v>0.0721870343191197</v>
+      </c>
+      <c r="J4">
+        <v>0.07218703431911971</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.302666</v>
+      </c>
+      <c r="O4">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P4">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q4">
+        <v>0.005393878045111111</v>
+      </c>
+      <c r="R4">
+        <v>0.048544902406</v>
+      </c>
+      <c r="S4">
+        <v>0.01541462131099278</v>
+      </c>
+      <c r="T4">
+        <v>0.01541462131099278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.05346366666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.160391</v>
+      </c>
+      <c r="I5">
+        <v>0.0721870343191197</v>
+      </c>
+      <c r="J5">
+        <v>0.07218703431911971</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.026484</v>
+      </c>
+      <c r="N5">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P5">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q5">
+        <v>0.001415931748</v>
+      </c>
+      <c r="R5">
+        <v>0.012743385732</v>
+      </c>
+      <c r="S5">
+        <v>0.004046448865749699</v>
+      </c>
+      <c r="T5">
+        <v>0.0040464488657497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5894243333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.768273</v>
+      </c>
+      <c r="I6">
+        <v>0.7958450520077357</v>
+      </c>
+      <c r="J6">
+        <v>0.7958450520077358</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.061306</v>
+      </c>
+      <c r="N6">
+        <v>0.183918</v>
+      </c>
+      <c r="O6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q6">
+        <v>0.03613524817933333</v>
+      </c>
+      <c r="R6">
+        <v>0.325217233614</v>
+      </c>
+      <c r="S6">
+        <v>0.1032672896948471</v>
+      </c>
+      <c r="T6">
+        <v>0.1032672896948471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5894243333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.768273</v>
+      </c>
+      <c r="I7">
+        <v>0.7958450520077357</v>
+      </c>
+      <c r="J7">
+        <v>0.7958450520077358</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q7">
+        <v>0.1672699809097778</v>
+      </c>
+      <c r="R7">
+        <v>1.505429828188</v>
+      </c>
+      <c r="S7">
+        <v>0.4780240470505674</v>
+      </c>
+      <c r="T7">
+        <v>0.4780240470505674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5894243333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.768273</v>
+      </c>
+      <c r="I8">
+        <v>0.7958450520077357</v>
+      </c>
+      <c r="J8">
+        <v>0.7958450520077358</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.302666</v>
+      </c>
+      <c r="O8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q8">
+        <v>0.05946623509088889</v>
+      </c>
+      <c r="R8">
+        <v>0.535196115818</v>
+      </c>
+      <c r="S8">
+        <v>0.1699425695297936</v>
+      </c>
+      <c r="T8">
+        <v>0.1699425695297937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="H4">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="I4">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="J4">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="N4">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.01162598089848747</v>
-      </c>
-      <c r="R4">
-        <v>0.01162598089848747</v>
-      </c>
-      <c r="S4">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="T4">
-        <v>0.07003868605750947</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5894243333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.768273</v>
+      </c>
+      <c r="I9">
+        <v>0.7958450520077357</v>
+      </c>
+      <c r="J9">
+        <v>0.7958450520077358</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.026484</v>
+      </c>
+      <c r="N9">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q9">
+        <v>0.015610314044</v>
+      </c>
+      <c r="R9">
+        <v>0.140492826396</v>
+      </c>
+      <c r="S9">
+        <v>0.04461114573252749</v>
+      </c>
+      <c r="T9">
+        <v>0.04461114573252749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.018799</v>
+      </c>
+      <c r="H10">
+        <v>0.056397</v>
+      </c>
+      <c r="I10">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J10">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.061306</v>
+      </c>
+      <c r="N10">
+        <v>0.183918</v>
+      </c>
+      <c r="O10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q10">
+        <v>0.001152491494</v>
+      </c>
+      <c r="R10">
+        <v>0.010372423446</v>
+      </c>
+      <c r="S10">
+        <v>0.003293589472281877</v>
+      </c>
+      <c r="T10">
+        <v>0.003293589472281878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.018799</v>
+      </c>
+      <c r="H11">
+        <v>0.056397</v>
+      </c>
+      <c r="I11">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J11">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q11">
+        <v>0.005334880481333334</v>
+      </c>
+      <c r="R11">
+        <v>0.048013924332</v>
+      </c>
+      <c r="S11">
+        <v>0.0152460181100491</v>
+      </c>
+      <c r="T11">
+        <v>0.0152460181100491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.018799</v>
+      </c>
+      <c r="H12">
+        <v>0.056397</v>
+      </c>
+      <c r="I12">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J12">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.302666</v>
+      </c>
+      <c r="O12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q12">
+        <v>0.001896606044666667</v>
+      </c>
+      <c r="R12">
+        <v>0.017069454402</v>
+      </c>
+      <c r="S12">
+        <v>0.005420119570774294</v>
+      </c>
+      <c r="T12">
+        <v>0.005420119570774294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.018799</v>
+      </c>
+      <c r="H13">
+        <v>0.056397</v>
+      </c>
+      <c r="I13">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J13">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.026484</v>
+      </c>
+      <c r="N13">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q13">
+        <v>0.000497872716</v>
+      </c>
+      <c r="R13">
+        <v>0.004480854443999999</v>
+      </c>
+      <c r="S13">
+        <v>0.001422820337061841</v>
+      </c>
+      <c r="T13">
+        <v>0.001422820337061841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.051364</v>
+      </c>
+      <c r="I14">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J14">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.061306</v>
+      </c>
+      <c r="N14">
+        <v>0.183918</v>
+      </c>
+      <c r="O14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q14">
+        <v>0.001049640461333333</v>
+      </c>
+      <c r="R14">
+        <v>0.009446764151999999</v>
+      </c>
+      <c r="S14">
+        <v>0.00299966185531653</v>
+      </c>
+      <c r="T14">
+        <v>0.00299966185531653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.051364</v>
+      </c>
+      <c r="I15">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J15">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q15">
+        <v>0.004858783287111112</v>
+      </c>
+      <c r="R15">
+        <v>0.04372904958400001</v>
+      </c>
+      <c r="S15">
+        <v>0.01388542784553366</v>
+      </c>
+      <c r="T15">
+        <v>0.01388542784553366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.051364</v>
+      </c>
+      <c r="I16">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J16">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.302666</v>
+      </c>
+      <c r="O16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q16">
+        <v>0.001727348491555555</v>
+      </c>
+      <c r="R16">
+        <v>0.015546136424</v>
+      </c>
+      <c r="S16">
+        <v>0.004936415441127202</v>
+      </c>
+      <c r="T16">
+        <v>0.004936415441127203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.051364</v>
+      </c>
+      <c r="I17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.026484</v>
+      </c>
+      <c r="N17">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q17">
+        <v>0.0004534413919999999</v>
+      </c>
+      <c r="R17">
+        <v>0.004080972528</v>
+      </c>
+      <c r="S17">
+        <v>0.001295844527064283</v>
+      </c>
+      <c r="T17">
+        <v>0.001295844527064284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.185456</v>
+      </c>
+      <c r="I18">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J18">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.061306</v>
+      </c>
+      <c r="N18">
+        <v>0.183918</v>
+      </c>
+      <c r="O18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q18">
+        <v>0.003789855178666666</v>
+      </c>
+      <c r="R18">
+        <v>0.034108696608</v>
+      </c>
+      <c r="S18">
+        <v>0.01083064576434044</v>
+      </c>
+      <c r="T18">
+        <v>0.01083064576434044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.185456</v>
+      </c>
+      <c r="I19">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J19">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q19">
+        <v>0.01754323092622223</v>
+      </c>
+      <c r="R19">
+        <v>0.157889078336</v>
+      </c>
+      <c r="S19">
+        <v>0.05013503439220642</v>
+      </c>
+      <c r="T19">
+        <v>0.05013503439220644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.185456</v>
+      </c>
+      <c r="I20">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J20">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.302666</v>
+      </c>
+      <c r="O20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q20">
+        <v>0.006236802855111111</v>
+      </c>
+      <c r="R20">
+        <v>0.056131225696</v>
+      </c>
+      <c r="S20">
+        <v>0.01782353130694039</v>
+      </c>
+      <c r="T20">
+        <v>0.0178235313069404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.185456</v>
+      </c>
+      <c r="I21">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J21">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.026484</v>
+      </c>
+      <c r="N21">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q21">
+        <v>0.001637205568</v>
+      </c>
+      <c r="R21">
+        <v>0.014734850112</v>
+      </c>
+      <c r="S21">
+        <v>0.004678805050448442</v>
+      </c>
+      <c r="T21">
+        <v>0.004678805050448443</v>
       </c>
     </row>
   </sheetData>
